--- a/ChaoticCircuits/Resources/Documentation/VanDerPol.xlsx
+++ b/ChaoticCircuits/Resources/Documentation/VanDerPol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\ChaoticCircuits\Resources\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156881AD-E2D4-441F-AEC1-23FBCA08D622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFABB9B1-1AF7-4677-810D-4A9C2051CEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C09873DD-A5D4-4DAB-9911-41020726C940}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Damping</t>
   </si>
@@ -148,6 +148,12 @@
   <si>
     <t>y</t>
   </si>
+  <si>
+    <t>y/x</t>
+  </si>
+  <si>
+    <t>dy/dx</t>
+  </si>
 </sst>
 </file>
 
@@ -200,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -208,6 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -957,6 +964,1320 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y/x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$2:$G$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.3500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.2500000000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.1500000000000012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.0500000000000016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.9500000000000017</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.9000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.8500000000000016</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.7500000000000016</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.7000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.6500000000000015</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.5500000000000014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.5000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.4500000000000013</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.4000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.3500000000000012</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.3000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.2500000000000011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.0500000000000009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.95000000000000084</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.9000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.85000000000000075</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.80000000000000071</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.75000000000000067</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.70000000000000062</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.65000000000000058</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.60000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.55000000000000049</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.50000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.45000000000000046</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.40000000000000047</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.35000000000000048</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.30000000000000049</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.2500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.20000000000000051</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.15000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.10000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-5.0000000000000516E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-5.134781488891349E-16</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.9999999999999489E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.9999999999999492E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.14999999999999949</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.19999999999999951</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.2499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.29999999999999949</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.34999999999999948</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.39999999999999947</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.44999999999999946</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.49999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.54999999999999949</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.59999999999999953</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64999999999999958</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.69999999999999962</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.74999999999999967</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.79999999999999971</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.84999999999999976</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.8999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.94999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.5000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.6000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.7500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.8000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.8500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.9000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.9500000000000006</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.0500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.1999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.2499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.2999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.3499999999999992</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4499999999999988</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.4999999999999987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$2:$I$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1.083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0008333333333335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92000000000000037</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84083333333333421</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76333333333333453</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68750000000000111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61333333333333462</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54083333333333483</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47000000000000197</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4008333333333356</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3333333333333357</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26750000000000229</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20333333333333536</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14083333333333536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0000000000001847E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0833333333335036E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.6666666666665071E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-9.2499999999998361E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.14666666666666517</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.19916666666666527</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.24999999999999867</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.29916666666666547</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.34666666666666557</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.39249999999999896</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.43666666666666565</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.47916666666666585</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.51999999999999913</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.55916666666666592</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.59666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.6324999999999994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.66666666666666607</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.69916666666666616</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.72999999999999954</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.75916666666666632</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.78666666666666629</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.81249999999999967</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.83666666666666645</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.85916666666666641</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.87999999999999978</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.89916666666666645</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.91666666666666652</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.93249999999999988</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.94666666666666655</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.9591666666666665</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.96999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.97916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.98666666666666658</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.99249999999999994</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.99666666666666659</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.99916666666666665</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.99916666666666665</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.9966666666666667</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.99250000000000005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.98666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.97916666666666674</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.97000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.95916666666666683</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.94666666666666677</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.93250000000000011</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.91666666666666685</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.89916666666666689</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.88000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.85916666666666686</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.83666666666666689</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.81250000000000022</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.78666666666666685</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.75916666666666677</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.7300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.69916666666666671</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.66666666666666674</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.63250000000000017</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.59666666666666679</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.55916666666666681</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.52</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.47916666666666674</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.43666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.39249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.34666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.29916666666666658</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.24999999999999978</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.19916666666666649</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.14666666666666639</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-9.2499999999999694E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-3.6666666666666181E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.0833333333333925E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.0000000000000515E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.14083333333333403</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.20333333333333403</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.26750000000000074</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.33333333333333393</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.40083333333333382</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.54083333333333306</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.61333333333333284</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.68749999999999933</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.76333333333333231</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.84083333333333199</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.91999999999999837</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.0008333333333312</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.0833333333333308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C56-4BF6-A50D-CC86EB0AB3BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dy/dx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$2:$G$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.3500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.2500000000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.1500000000000012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.0500000000000016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.9500000000000017</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.9000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.8500000000000016</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.7500000000000016</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.7000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.6500000000000015</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.5500000000000014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.5000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.4500000000000013</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.4000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.3500000000000012</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.3000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.2500000000000011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.0500000000000009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.95000000000000084</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.9000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.85000000000000075</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.80000000000000071</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.75000000000000067</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.70000000000000062</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.65000000000000058</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.60000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.55000000000000049</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.50000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.45000000000000046</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.40000000000000047</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.35000000000000048</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.30000000000000049</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.2500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.20000000000000051</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.15000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.10000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-5.0000000000000516E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-5.134781488891349E-16</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.9999999999999489E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.9999999999999492E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.14999999999999949</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.19999999999999951</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.2499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.29999999999999949</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.34999999999999948</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.39999999999999947</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.44999999999999946</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.49999999999999944</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.54999999999999949</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.59999999999999953</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64999999999999958</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.69999999999999962</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.74999999999999967</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.79999999999999971</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.84999999999999976</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.8999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.94999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.5000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.6000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.7500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.8000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.8500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.9000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.9500000000000006</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.0500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.1999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.2499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.2999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.3499999999999992</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4499999999999988</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.4999999999999987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$J$2:$J$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0025000000000013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7600000000000016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5225000000000026</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2900000000000036</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0625000000000036</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8400000000000043</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6225000000000049</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4100000000000064</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2025000000000068</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0000000000000071</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8025000000000069</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6100000000000065</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4225000000000061</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2400000000000055</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0625000000000053</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.890000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.722500000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5600000000000045</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4025000000000043</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1025000000000036</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.96000000000000352</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.82250000000000334</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.69000000000000306</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.56250000000000266</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.44000000000000261</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.32250000000000245</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.21000000000000218</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.10250000000000203</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7763568394002505E-15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-9.7499999999998366E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.18999999999999861</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.27749999999999875</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.35999999999999888</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.437499999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.50999999999999912</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.57749999999999924</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.63999999999999935</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.69749999999999945</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.74999999999999956</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.79749999999999965</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.83999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.87749999999999972</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.9099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.93749999999999978</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.95999999999999974</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.97749999999999981</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.98999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.99749999999999994</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.99750000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.9900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.97750000000000015</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.96000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.93750000000000022</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.91000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.87750000000000039</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.84000000000000041</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.79750000000000054</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.75000000000000056</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.69750000000000056</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.64000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.57750000000000057</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.51000000000000045</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.43750000000000044</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.36000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.27750000000000041</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.19000000000000039</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-9.7500000000000253E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-2.2204460492503131E-16</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.10249999999999959</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.20999999999999974</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.32249999999999979</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.43999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.69000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.82250000000000023</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.96000000000000041</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.1025000000000005</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.2500000000000009</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.4025000000000007</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.722500000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.8900000000000015</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.0625000000000018</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.2400000000000015</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.4225000000000021</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.6100000000000021</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.8025000000000024</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.2025000000000015</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.6224999999999996</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.0624999999999982</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.2899999999999974</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.5224999999999964</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.7599999999999953</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.0024999999999942</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.2499999999999929</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9C56-4BF6-A50D-CC86EB0AB3BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1075,6 +2396,8 @@
         <c:axId val="245440016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3"/>
+          <c:min val="-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1092,47 +2415,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1182,6 +2464,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1781,8 +3094,8 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -2115,9 +3428,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6334097-5BC4-42A1-B462-DDDF6DFBF341}">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2125,7 +3440,7 @@
     <col min="5" max="5" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2135,8 +3450,14 @@
       <c r="H1" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2156,8 +3477,16 @@
         <f>-G2*(1-1/3*G2^2)</f>
         <v>-2.7083333333333326</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <f>-(1-1/3*G2^2)</f>
+        <v>1.083333333333333</v>
+      </c>
+      <c r="J2">
+        <f>-(1-G2^2)</f>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2178,8 +3507,16 @@
         <f>-G3*(1-1/3*G3^2)</f>
         <v>-2.4520416666666671</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="0">-(1-1/3*G3^2)</f>
+        <v>1.0008333333333335</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="1">-(1-G3^2)</f>
+        <v>5.0025000000000013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2193,28 +3530,44 @@
         <v>26</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G31" si="0">G3+0.05</f>
+        <f t="shared" ref="G4:G31" si="2">G3+0.05</f>
         <v>-2.4000000000000004</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H67" si="1">-G4*(1-1/3*G4^2)</f>
+        <f>-G4*(1-1/3*G4^2)</f>
         <v>-2.2080000000000011</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0.92000000000000037</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>4.7600000000000016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.3500000000000005</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f>-G5*(1-1/3*G5^2)</f>
         <v>-1.9759583333333359</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0.84083333333333421</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>4.5225000000000026</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2232,15 +3585,23 @@
         <v>8</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.3000000000000007</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f>-G6*(1-1/3*G6^2)</f>
         <v>-1.75566666666667</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0.76333333333333453</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>4.2900000000000036</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -2258,15 +3619,23 @@
         <v>10</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.2500000000000009</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f>-G7*(1-1/3*G7^2)</f>
         <v>-1.5468750000000031</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0.68750000000000111</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>4.0625000000000036</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2283,28 +3652,44 @@
         <v>25</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.2000000000000011</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f>-G8*(1-1/3*G8^2)</f>
         <v>-1.3493333333333368</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0.61333333333333462</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>3.8400000000000043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.1500000000000012</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f>-G9*(1-1/3*G9^2)</f>
         <v>-1.1627916666666707</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0.54083333333333483</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>3.6225000000000049</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2324,15 +3709,23 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.1000000000000014</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f>-G10*(1-1/3*G10^2)</f>
         <v>-0.98700000000000476</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0.47000000000000197</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>3.4100000000000064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2351,25 +3744,33 @@
         <v>24</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.0500000000000016</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f>-G11*(1-1/3*G11^2)</f>
         <v>-0.82170833333333859</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0.4008333333333356</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>3.2025000000000068</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12">
-        <f>B3*B8/(B4*B7*B6)</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C12">
-        <f>C3*C8/(C4*C7*C6)</f>
-        <v>4.166666666666667</v>
+      <c r="B12" s="5">
+        <f>B3*B8/(B7*B6)</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <f>C3*C8/(C7*C6)</f>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -2378,15 +3779,23 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.0000000000000018</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
+        <f>-G12*(1-1/3*G12^2)</f>
         <v>-0.66666666666667196</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0.3333333333333357</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000071</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2405,902 +3814,1622 @@
         <v>23</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.9500000000000017</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
+        <f>-G13*(1-1/3*G13^2)</f>
         <v>-0.52162500000000489</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0.26750000000000229</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>2.8025000000000069</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.9000000000000017</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
+        <f>-G14*(1-1/3*G14^2)</f>
         <v>-0.38633333333333753</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0.20333333333333536</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>2.6100000000000065</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.8500000000000016</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
+        <f>-G15*(1-1/3*G15^2)</f>
         <v>-0.26054166666667067</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0.14083333333333536</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>2.4225000000000061</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.8000000000000016</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
+        <f>-G16*(1-1/3*G16^2)</f>
         <v>-0.14400000000000346</v>
       </c>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>8.0000000000001847E-2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>2.2400000000000055</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.7500000000000016</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
+        <f>-G17*(1-1/3*G17^2)</f>
         <v>-3.6458333333336347E-2</v>
       </c>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>2.0833333333335036E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>2.0625000000000053</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.7000000000000015</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
+        <f>-G18*(1-1/3*G18^2)</f>
         <v>6.2333333333330673E-2</v>
       </c>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>-3.6666666666665071E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>1.890000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.6500000000000015</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
+        <f>-G19*(1-1/3*G19^2)</f>
         <v>0.15262499999999743</v>
       </c>
-    </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>-9.2499999999998361E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>1.722500000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.6000000000000014</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
+        <f>-G20*(1-1/3*G20^2)</f>
         <v>0.23466666666666447</v>
       </c>
-    </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>-0.14666666666666517</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>1.5600000000000045</v>
+      </c>
+    </row>
+    <row r="21" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.5500000000000014</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
+        <f>-G21*(1-1/3*G21^2)</f>
         <v>0.30870833333333142</v>
       </c>
-    </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>-0.19916666666666527</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>1.4025000000000043</v>
+      </c>
+    </row>
+    <row r="22" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.5000000000000013</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
+        <f>-G22*(1-1/3*G22^2)</f>
         <v>0.37499999999999833</v>
       </c>
-    </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>-0.24999999999999867</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>1.250000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.4500000000000013</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
+        <f>-G23*(1-1/3*G23^2)</f>
         <v>0.4337916666666653</v>
       </c>
-    </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>-0.29916666666666547</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>1.1025000000000036</v>
+      </c>
+    </row>
+    <row r="24" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.4000000000000012</v>
       </c>
       <c r="H24">
-        <f t="shared" si="1"/>
+        <f>-G24*(1-1/3*G24^2)</f>
         <v>0.48533333333333223</v>
       </c>
-    </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>-0.34666666666666557</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0.96000000000000352</v>
+      </c>
+    </row>
+    <row r="25" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.3500000000000012</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
+        <f>-G25*(1-1/3*G25^2)</f>
         <v>0.5298749999999991</v>
       </c>
-    </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>-0.39249999999999896</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>0.82250000000000334</v>
+      </c>
+    </row>
+    <row r="26" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.3000000000000012</v>
       </c>
       <c r="H26">
-        <f t="shared" si="1"/>
+        <f>-G26*(1-1/3*G26^2)</f>
         <v>0.56766666666666588</v>
       </c>
-    </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>-0.43666666666666565</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>0.69000000000000306</v>
+      </c>
+    </row>
+    <row r="27" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.2500000000000011</v>
       </c>
       <c r="H27">
-        <f t="shared" si="1"/>
+        <f>-G27*(1-1/3*G27^2)</f>
         <v>0.59895833333333282</v>
       </c>
-    </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>-0.47916666666666585</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>0.56250000000000266</v>
+      </c>
+    </row>
+    <row r="28" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.2000000000000011</v>
       </c>
       <c r="H28">
-        <f t="shared" si="1"/>
+        <f>-G28*(1-1/3*G28^2)</f>
         <v>0.62399999999999956</v>
       </c>
-    </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>-0.51999999999999913</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>0.44000000000000261</v>
+      </c>
+    </row>
+    <row r="29" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.150000000000001</v>
       </c>
       <c r="H29">
-        <f t="shared" si="1"/>
+        <f>-G29*(1-1/3*G29^2)</f>
         <v>0.6430416666666664</v>
       </c>
-    </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>-0.55916666666666592</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>0.32250000000000245</v>
+      </c>
+    </row>
+    <row r="30" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.100000000000001</v>
       </c>
       <c r="H30">
-        <f t="shared" si="1"/>
+        <f>-G30*(1-1/3*G30^2)</f>
         <v>0.65633333333333321</v>
       </c>
-    </row>
-    <row r="31" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>-0.59666666666666601</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>0.21000000000000218</v>
+      </c>
+    </row>
+    <row r="31" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-1.0500000000000009</v>
       </c>
       <c r="H31">
-        <f t="shared" si="1"/>
+        <f>-G31*(1-1/3*G31^2)</f>
         <v>0.66412499999999997</v>
       </c>
-    </row>
-    <row r="32" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>-0.6324999999999994</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>0.10250000000000203</v>
+      </c>
+    </row>
+    <row r="32" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G32">
-        <f t="shared" ref="G32:G65" si="2">G31+0.05</f>
+        <f t="shared" ref="G32:G65" si="3">G31+0.05</f>
         <v>-1.0000000000000009</v>
       </c>
       <c r="H32">
-        <f t="shared" si="1"/>
+        <f>-G32*(1-1/3*G32^2)</f>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>-0.66666666666666607</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.95000000000000084</v>
       </c>
       <c r="H33">
-        <f t="shared" si="1"/>
+        <f>-G33*(1-1/3*G33^2)</f>
         <v>0.6642083333333334</v>
       </c>
-    </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>-0.69916666666666616</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>-9.7499999999998366E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.9000000000000008</v>
       </c>
       <c r="H34">
-        <f t="shared" si="1"/>
+        <f>-G34*(1-1/3*G34^2)</f>
         <v>0.65700000000000014</v>
       </c>
-    </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>-0.72999999999999954</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>-0.18999999999999861</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.85000000000000075</v>
       </c>
       <c r="H35">
-        <f t="shared" si="1"/>
+        <f>-G35*(1-1/3*G35^2)</f>
         <v>0.64529166666666693</v>
       </c>
-    </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>-0.75916666666666632</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>-0.27749999999999875</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.80000000000000071</v>
       </c>
       <c r="H36">
-        <f t="shared" si="1"/>
+        <f>-G36*(1-1/3*G36^2)</f>
         <v>0.62933333333333363</v>
       </c>
-    </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>-0.78666666666666629</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>-0.35999999999999888</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.75000000000000067</v>
       </c>
       <c r="H37">
-        <f t="shared" si="1"/>
+        <f>-G37*(1-1/3*G37^2)</f>
         <v>0.60937500000000033</v>
       </c>
-    </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>-0.81249999999999967</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>-0.437499999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.70000000000000062</v>
       </c>
       <c r="H38">
-        <f t="shared" si="1"/>
+        <f>-G38*(1-1/3*G38^2)</f>
         <v>0.585666666666667</v>
       </c>
-    </row>
-    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>-0.83666666666666645</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>-0.50999999999999912</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.65000000000000058</v>
       </c>
       <c r="H39">
-        <f t="shared" si="1"/>
+        <f>-G39*(1-1/3*G39^2)</f>
         <v>0.55845833333333361</v>
       </c>
-    </row>
-    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>-0.85916666666666641</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>-0.57749999999999924</v>
+      </c>
+    </row>
+    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.60000000000000053</v>
       </c>
       <c r="H40">
-        <f t="shared" si="1"/>
+        <f>-G40*(1-1/3*G40^2)</f>
         <v>0.52800000000000036</v>
       </c>
-    </row>
-    <row r="41" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>-0.87999999999999978</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>-0.63999999999999935</v>
+      </c>
+    </row>
+    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.55000000000000049</v>
       </c>
       <c r="H41">
-        <f t="shared" si="1"/>
+        <f>-G41*(1-1/3*G41^2)</f>
         <v>0.49454166666666699</v>
       </c>
-    </row>
-    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>-0.89916666666666645</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>-0.69749999999999945</v>
+      </c>
+    </row>
+    <row r="42" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.50000000000000044</v>
       </c>
       <c r="H42">
-        <f t="shared" si="1"/>
+        <f>-G42*(1-1/3*G42^2)</f>
         <v>0.45833333333333365</v>
       </c>
-    </row>
-    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>-0.91666666666666652</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>-0.74999999999999956</v>
+      </c>
+    </row>
+    <row r="43" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.45000000000000046</v>
       </c>
       <c r="H43">
-        <f t="shared" si="1"/>
+        <f>-G43*(1-1/3*G43^2)</f>
         <v>0.41962500000000036</v>
       </c>
-    </row>
-    <row r="44" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>-0.93249999999999988</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>-0.79749999999999965</v>
+      </c>
+    </row>
+    <row r="44" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.40000000000000047</v>
       </c>
       <c r="H44">
-        <f t="shared" si="1"/>
+        <f>-G44*(1-1/3*G44^2)</f>
         <v>0.37866666666666704</v>
       </c>
-    </row>
-    <row r="45" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>-0.94666666666666655</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>-0.83999999999999964</v>
+      </c>
+    </row>
+    <row r="45" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.35000000000000048</v>
       </c>
       <c r="H45">
-        <f t="shared" si="1"/>
+        <f>-G45*(1-1/3*G45^2)</f>
         <v>0.33570833333333372</v>
       </c>
-    </row>
-    <row r="46" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>-0.9591666666666665</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>-0.87749999999999972</v>
+      </c>
+    </row>
+    <row r="46" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.30000000000000049</v>
       </c>
       <c r="H46">
-        <f t="shared" si="1"/>
+        <f>-G46*(1-1/3*G46^2)</f>
         <v>0.29100000000000042</v>
       </c>
-    </row>
-    <row r="47" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>-0.96999999999999986</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>-0.9099999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.2500000000000005</v>
       </c>
       <c r="H47">
-        <f t="shared" si="1"/>
+        <f>-G47*(1-1/3*G47^2)</f>
         <v>0.24479166666666716</v>
       </c>
-    </row>
-    <row r="48" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>-0.97916666666666663</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>-0.93749999999999978</v>
+      </c>
+    </row>
+    <row r="48" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.20000000000000051</v>
       </c>
       <c r="H48">
-        <f t="shared" si="1"/>
+        <f>-G48*(1-1/3*G48^2)</f>
         <v>0.19733333333333383</v>
       </c>
-    </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>-0.98666666666666658</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>-0.95999999999999974</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.15000000000000052</v>
       </c>
       <c r="H49">
-        <f t="shared" si="1"/>
+        <f>-G49*(1-1/3*G49^2)</f>
         <v>0.14887500000000051</v>
       </c>
-    </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>-0.99249999999999994</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>-0.97749999999999981</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.10000000000000052</v>
       </c>
       <c r="H50">
-        <f t="shared" si="1"/>
+        <f>-G50*(1-1/3*G50^2)</f>
         <v>9.9666666666667181E-2</v>
       </c>
-    </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>-0.99666666666666659</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="1"/>
+        <v>-0.98999999999999988</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.0000000000000516E-2</v>
       </c>
       <c r="H51">
-        <f t="shared" si="1"/>
+        <f>-G51*(1-1/3*G51^2)</f>
         <v>4.9958333333333847E-2</v>
       </c>
-    </row>
-    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>-0.99916666666666665</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="1"/>
+        <v>-0.99749999999999994</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.134781488891349E-16</v>
       </c>
       <c r="H52">
-        <f t="shared" si="1"/>
+        <f>-G52*(1-1/3*G52^2)</f>
         <v>5.134781488891349E-16</v>
       </c>
-    </row>
-    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9999999999999489E-2</v>
       </c>
       <c r="H53">
-        <f t="shared" si="1"/>
+        <f>-G53*(1-1/3*G53^2)</f>
         <v>-4.995833333333282E-2</v>
       </c>
-    </row>
-    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>-0.99916666666666665</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="1"/>
+        <v>-0.99750000000000005</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999492E-2</v>
       </c>
       <c r="H54">
-        <f t="shared" si="1"/>
+        <f>-G54*(1-1/3*G54^2)</f>
         <v>-9.9666666666666168E-2</v>
       </c>
-    </row>
-    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>-0.9966666666666667</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="1"/>
+        <v>-0.9900000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14999999999999949</v>
       </c>
       <c r="H55">
-        <f t="shared" si="1"/>
+        <f>-G55*(1-1/3*G55^2)</f>
         <v>-0.14887499999999951</v>
       </c>
-    </row>
-    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>-0.99250000000000005</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>-0.97750000000000015</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19999999999999951</v>
       </c>
       <c r="H56">
-        <f t="shared" si="1"/>
+        <f>-G56*(1-1/3*G56^2)</f>
         <v>-0.19733333333333286</v>
       </c>
-    </row>
-    <row r="57" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>-0.98666666666666669</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="1"/>
+        <v>-0.96000000000000019</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2499999999999995</v>
       </c>
       <c r="H57">
-        <f t="shared" si="1"/>
+        <f>-G57*(1-1/3*G57^2)</f>
         <v>-0.24479166666666619</v>
       </c>
-    </row>
-    <row r="58" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>-0.97916666666666674</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="1"/>
+        <v>-0.93750000000000022</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.29999999999999949</v>
       </c>
       <c r="H58">
-        <f t="shared" si="1"/>
+        <f>-G58*(1-1/3*G58^2)</f>
         <v>-0.29099999999999954</v>
       </c>
-    </row>
-    <row r="59" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>-0.97000000000000008</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="1"/>
+        <v>-0.91000000000000036</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.34999999999999948</v>
       </c>
       <c r="H59">
-        <f t="shared" si="1"/>
+        <f>-G59*(1-1/3*G59^2)</f>
         <v>-0.33570833333333289</v>
       </c>
-    </row>
-    <row r="60" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>-0.95916666666666683</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="1"/>
+        <v>-0.87750000000000039</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.39999999999999947</v>
       </c>
       <c r="H60">
-        <f t="shared" si="1"/>
+        <f>-G60*(1-1/3*G60^2)</f>
         <v>-0.37866666666666621</v>
       </c>
-    </row>
-    <row r="61" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>-0.94666666666666677</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="1"/>
+        <v>-0.84000000000000041</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.44999999999999946</v>
       </c>
       <c r="H61">
-        <f t="shared" si="1"/>
+        <f>-G61*(1-1/3*G61^2)</f>
         <v>-0.41962499999999953</v>
       </c>
-    </row>
-    <row r="62" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>-0.93250000000000011</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="1"/>
+        <v>-0.79750000000000054</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.49999999999999944</v>
       </c>
       <c r="H62">
-        <f t="shared" si="1"/>
+        <f>-G62*(1-1/3*G62^2)</f>
         <v>-0.45833333333333293</v>
       </c>
-    </row>
-    <row r="63" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>-0.91666666666666685</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="1"/>
+        <v>-0.75000000000000056</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.54999999999999949</v>
       </c>
       <c r="H63">
-        <f t="shared" si="1"/>
+        <f>-G63*(1-1/3*G63^2)</f>
         <v>-0.49454166666666632</v>
       </c>
-    </row>
-    <row r="64" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>-0.89916666666666689</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="1"/>
+        <v>-0.69750000000000056</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.59999999999999953</v>
       </c>
       <c r="H64">
-        <f t="shared" si="1"/>
+        <f>-G64*(1-1/3*G64^2)</f>
         <v>-0.52799999999999969</v>
       </c>
-    </row>
-    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>-0.88000000000000023</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="1"/>
+        <v>-0.64000000000000057</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.64999999999999958</v>
       </c>
       <c r="H65">
-        <f t="shared" si="1"/>
+        <f>-G65*(1-1/3*G65^2)</f>
         <v>-0.55845833333333306</v>
       </c>
-    </row>
-    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>-0.85916666666666686</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="1"/>
+        <v>-0.57750000000000057</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G66">
-        <f t="shared" ref="G66:G110" si="3">G65+0.05</f>
+        <f t="shared" ref="G66:G102" si="4">G65+0.05</f>
         <v>0.69999999999999962</v>
       </c>
       <c r="H66">
-        <f t="shared" si="1"/>
+        <f>-G66*(1-1/3*G66^2)</f>
         <v>-0.58566666666666656</v>
       </c>
-    </row>
-    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>-0.83666666666666689</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="1"/>
+        <v>-0.51000000000000045</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.74999999999999967</v>
       </c>
       <c r="H67">
-        <f t="shared" si="1"/>
+        <f>-G67*(1-1/3*G67^2)</f>
         <v>-0.60937499999999989</v>
       </c>
-    </row>
-    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <f t="shared" ref="I67:I102" si="5">-(1-1/3*G67^2)</f>
+        <v>-0.81250000000000022</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J102" si="6">-(1-G67^2)</f>
+        <v>-0.43750000000000044</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.79999999999999971</v>
       </c>
       <c r="H68">
-        <f t="shared" ref="H68:H110" si="4">-G68*(1-1/3*G68^2)</f>
+        <f>-G68*(1-1/3*G68^2)</f>
         <v>-0.6293333333333333</v>
       </c>
-    </row>
-    <row r="69" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <f t="shared" si="5"/>
+        <v>-0.78666666666666685</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="6"/>
+        <v>-0.36000000000000043</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.84999999999999976</v>
       </c>
       <c r="H69">
+        <f>-G69*(1-1/3*G69^2)</f>
+        <v>-0.6452916666666666</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="5"/>
+        <v>-0.75916666666666677</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="6"/>
+        <v>-0.27750000000000041</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G70">
         <f t="shared" si="4"/>
-        <v>-0.6452916666666666</v>
-      </c>
-    </row>
-    <row r="70" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G70">
-        <f t="shared" si="3"/>
         <v>0.8999999999999998</v>
       </c>
       <c r="H70">
+        <f>-G70*(1-1/3*G70^2)</f>
+        <v>-0.65700000000000003</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="5"/>
+        <v>-0.7300000000000002</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="6"/>
+        <v>-0.19000000000000039</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G71">
         <f t="shared" si="4"/>
-        <v>-0.65700000000000003</v>
-      </c>
-    </row>
-    <row r="71" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G71">
-        <f t="shared" si="3"/>
         <v>0.94999999999999984</v>
       </c>
       <c r="H71">
+        <f>-G71*(1-1/3*G71^2)</f>
+        <v>-0.66420833333333329</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="5"/>
+        <v>-0.69916666666666671</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="6"/>
+        <v>-9.7500000000000253E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G72">
         <f t="shared" si="4"/>
-        <v>-0.66420833333333329</v>
-      </c>
-    </row>
-    <row r="72" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G72">
-        <f t="shared" si="3"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="H72">
+        <f>-G72*(1-1/3*G72^2)</f>
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="5"/>
+        <v>-0.66666666666666674</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="6"/>
+        <v>-2.2204460492503131E-16</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G73">
         <f t="shared" si="4"/>
-        <v>-0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="73" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G73">
-        <f t="shared" si="3"/>
         <v>1.0499999999999998</v>
       </c>
       <c r="H73">
+        <f>-G73*(1-1/3*G73^2)</f>
+        <v>-0.66412500000000008</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="5"/>
+        <v>-0.63250000000000017</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="6"/>
+        <v>0.10249999999999959</v>
+      </c>
+    </row>
+    <row r="74" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G74">
         <f t="shared" si="4"/>
-        <v>-0.66412500000000008</v>
-      </c>
-    </row>
-    <row r="74" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G74">
-        <f t="shared" si="3"/>
         <v>1.0999999999999999</v>
       </c>
       <c r="H74">
+        <f>-G74*(1-1/3*G74^2)</f>
+        <v>-0.65633333333333344</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="5"/>
+        <v>-0.59666666666666679</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="6"/>
+        <v>0.20999999999999974</v>
+      </c>
+    </row>
+    <row r="75" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G75">
         <f t="shared" si="4"/>
-        <v>-0.65633333333333344</v>
-      </c>
-    </row>
-    <row r="75" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G75">
-        <f t="shared" si="3"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="H75">
+        <f>-G75*(1-1/3*G75^2)</f>
+        <v>-0.64304166666666673</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="5"/>
+        <v>-0.55916666666666681</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="6"/>
+        <v>0.32249999999999979</v>
+      </c>
+    </row>
+    <row r="76" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G76">
         <f t="shared" si="4"/>
-        <v>-0.64304166666666673</v>
-      </c>
-    </row>
-    <row r="76" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G76">
-        <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
       <c r="H76">
+        <f>-G76*(1-1/3*G76^2)</f>
+        <v>-0.624</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="5"/>
+        <v>-0.52</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="6"/>
+        <v>0.43999999999999995</v>
+      </c>
+    </row>
+    <row r="77" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G77">
         <f t="shared" si="4"/>
-        <v>-0.624</v>
-      </c>
-    </row>
-    <row r="77" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G77">
-        <f t="shared" si="3"/>
         <v>1.25</v>
       </c>
       <c r="H77">
+        <f>-G77*(1-1/3*G77^2)</f>
+        <v>-0.59895833333333348</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="5"/>
+        <v>-0.47916666666666674</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="6"/>
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="78" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G78">
         <f t="shared" si="4"/>
-        <v>-0.59895833333333348</v>
-      </c>
-    </row>
-    <row r="78" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G78">
-        <f t="shared" si="3"/>
         <v>1.3</v>
       </c>
       <c r="H78">
+        <f>-G78*(1-1/3*G78^2)</f>
+        <v>-0.56766666666666665</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="5"/>
+        <v>-0.43666666666666665</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="6"/>
+        <v>0.69000000000000017</v>
+      </c>
+    </row>
+    <row r="79" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G79">
         <f t="shared" si="4"/>
-        <v>-0.56766666666666665</v>
-      </c>
-    </row>
-    <row r="79" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G79">
-        <f t="shared" si="3"/>
         <v>1.35</v>
       </c>
       <c r="H79">
+        <f>-G79*(1-1/3*G79^2)</f>
+        <v>-0.52987499999999998</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="5"/>
+        <v>-0.39249999999999996</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="6"/>
+        <v>0.82250000000000023</v>
+      </c>
+    </row>
+    <row r="80" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G80">
         <f t="shared" si="4"/>
-        <v>-0.52987499999999998</v>
-      </c>
-    </row>
-    <row r="80" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G80">
-        <f t="shared" si="3"/>
         <v>1.4000000000000001</v>
       </c>
       <c r="H80">
+        <f>-G80*(1-1/3*G80^2)</f>
+        <v>-0.48533333333333323</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="5"/>
+        <v>-0.34666666666666657</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="6"/>
+        <v>0.96000000000000041</v>
+      </c>
+    </row>
+    <row r="81" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G81">
         <f t="shared" si="4"/>
-        <v>-0.48533333333333323</v>
-      </c>
-    </row>
-    <row r="81" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G81">
-        <f t="shared" si="3"/>
         <v>1.4500000000000002</v>
       </c>
       <c r="H81">
+        <f>-G81*(1-1/3*G81^2)</f>
+        <v>-0.43379166666666658</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="5"/>
+        <v>-0.29916666666666658</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="6"/>
+        <v>1.1025000000000005</v>
+      </c>
+    </row>
+    <row r="82" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G82">
         <f t="shared" si="4"/>
-        <v>-0.43379166666666658</v>
-      </c>
-    </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G82">
-        <f t="shared" si="3"/>
         <v>1.5000000000000002</v>
       </c>
       <c r="H82">
+        <f>-G82*(1-1/3*G82^2)</f>
+        <v>-0.37499999999999972</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="5"/>
+        <v>-0.24999999999999978</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="6"/>
+        <v>1.2500000000000009</v>
+      </c>
+    </row>
+    <row r="83" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G83">
         <f t="shared" si="4"/>
-        <v>-0.37499999999999972</v>
-      </c>
-    </row>
-    <row r="83" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G83">
-        <f t="shared" si="3"/>
         <v>1.5500000000000003</v>
       </c>
       <c r="H83">
+        <f>-G83*(1-1/3*G83^2)</f>
+        <v>-0.30870833333333314</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="5"/>
+        <v>-0.19916666666666649</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="6"/>
+        <v>1.4025000000000007</v>
+      </c>
+    </row>
+    <row r="84" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G84">
         <f t="shared" si="4"/>
-        <v>-0.30870833333333314</v>
-      </c>
-    </row>
-    <row r="84" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G84">
-        <f t="shared" si="3"/>
         <v>1.6000000000000003</v>
       </c>
       <c r="H84">
+        <f>-G84*(1-1/3*G84^2)</f>
+        <v>-0.23466666666666627</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="5"/>
+        <v>-0.14666666666666639</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="6"/>
+        <v>1.5600000000000009</v>
+      </c>
+    </row>
+    <row r="85" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G85">
         <f t="shared" si="4"/>
-        <v>-0.23466666666666627</v>
-      </c>
-    </row>
-    <row r="85" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G85">
-        <f t="shared" si="3"/>
         <v>1.6500000000000004</v>
       </c>
       <c r="H85">
+        <f>-G85*(1-1/3*G85^2)</f>
+        <v>-0.15262499999999954</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="5"/>
+        <v>-9.2499999999999694E-2</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="6"/>
+        <v>1.722500000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G86">
         <f t="shared" si="4"/>
-        <v>-0.15262499999999954</v>
-      </c>
-    </row>
-    <row r="86" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G86">
-        <f t="shared" si="3"/>
         <v>1.7000000000000004</v>
       </c>
       <c r="H86">
+        <f>-G86*(1-1/3*G86^2)</f>
+        <v>-6.2333333333332526E-2</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="5"/>
+        <v>-3.6666666666666181E-2</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="6"/>
+        <v>1.8900000000000015</v>
+      </c>
+    </row>
+    <row r="87" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G87">
         <f t="shared" si="4"/>
-        <v>-6.2333333333332526E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G87">
-        <f t="shared" si="3"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="H87">
+        <f>-G87*(1-1/3*G87^2)</f>
+        <v>3.6458333333334376E-2</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="5"/>
+        <v>2.0833333333333925E-2</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="6"/>
+        <v>2.0625000000000018</v>
+      </c>
+    </row>
+    <row r="88" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G88">
         <f t="shared" si="4"/>
-        <v>3.6458333333334376E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G88">
-        <f t="shared" si="3"/>
         <v>1.8000000000000005</v>
       </c>
       <c r="H88">
+        <f>-G88*(1-1/3*G88^2)</f>
+        <v>0.14400000000000096</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="5"/>
+        <v>8.0000000000000515E-2</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="6"/>
+        <v>2.2400000000000015</v>
+      </c>
+    </row>
+    <row r="89" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G89">
         <f t="shared" si="4"/>
-        <v>0.14400000000000096</v>
-      </c>
-    </row>
-    <row r="89" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G89">
-        <f t="shared" si="3"/>
         <v>1.8500000000000005</v>
       </c>
       <c r="H89">
+        <f>-G89*(1-1/3*G89^2)</f>
+        <v>0.26054166666666806</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="5"/>
+        <v>0.14083333333333403</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="6"/>
+        <v>2.4225000000000021</v>
+      </c>
+    </row>
+    <row r="90" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G90">
         <f t="shared" si="4"/>
-        <v>0.26054166666666806</v>
-      </c>
-    </row>
-    <row r="90" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G90">
-        <f t="shared" si="3"/>
         <v>1.9000000000000006</v>
       </c>
       <c r="H90">
+        <f>-G90*(1-1/3*G90^2)</f>
+        <v>0.38633333333333481</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="5"/>
+        <v>0.20333333333333403</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="6"/>
+        <v>2.6100000000000021</v>
+      </c>
+    </row>
+    <row r="91" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G91">
         <f t="shared" si="4"/>
-        <v>0.38633333333333481</v>
-      </c>
-    </row>
-    <row r="91" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G91">
-        <f t="shared" si="3"/>
         <v>1.9500000000000006</v>
       </c>
       <c r="H91">
+        <f>-G91*(1-1/3*G91^2)</f>
+        <v>0.52162500000000156</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="5"/>
+        <v>0.26750000000000074</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="6"/>
+        <v>2.8025000000000024</v>
+      </c>
+    </row>
+    <row r="92" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G92">
         <f t="shared" si="4"/>
-        <v>0.52162500000000156</v>
-      </c>
-    </row>
-    <row r="92" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G92">
-        <f t="shared" si="3"/>
         <v>2.0000000000000004</v>
       </c>
       <c r="H92">
+        <f>-G92*(1-1/3*G92^2)</f>
+        <v>0.66666666666666796</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333393</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="6"/>
+        <v>3.0000000000000018</v>
+      </c>
+    </row>
+    <row r="93" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G93">
         <f t="shared" si="4"/>
-        <v>0.66666666666666796</v>
-      </c>
-    </row>
-    <row r="93" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G93">
-        <f t="shared" si="3"/>
         <v>2.0500000000000003</v>
       </c>
       <c r="H93">
+        <f>-G93*(1-1/3*G93^2)</f>
+        <v>0.82170833333333448</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="5"/>
+        <v>0.40083333333333382</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="6"/>
+        <v>3.2025000000000015</v>
+      </c>
+    </row>
+    <row r="94" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G94">
         <f t="shared" si="4"/>
-        <v>0.82170833333333448</v>
-      </c>
-    </row>
-    <row r="94" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G94">
-        <f t="shared" si="3"/>
         <v>2.1</v>
       </c>
       <c r="H94">
+        <f>-G94*(1-1/3*G94^2)</f>
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="5"/>
+        <v>0.47</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="6"/>
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="95" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G95">
         <f t="shared" si="4"/>
-        <v>0.98699999999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G95">
-        <f t="shared" si="3"/>
         <v>2.15</v>
       </c>
       <c r="H95">
+        <f>-G95*(1-1/3*G95^2)</f>
+        <v>1.162791666666666</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="5"/>
+        <v>0.54083333333333306</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="6"/>
+        <v>3.6224999999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G96">
         <f t="shared" si="4"/>
-        <v>1.162791666666666</v>
-      </c>
-    </row>
-    <row r="96" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G96">
-        <f t="shared" si="3"/>
         <v>2.1999999999999997</v>
       </c>
       <c r="H96">
+        <f>-G96*(1-1/3*G96^2)</f>
+        <v>1.3493333333333322</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="5"/>
+        <v>0.61333333333333284</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="6"/>
+        <v>3.839999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G97">
         <f t="shared" si="4"/>
-        <v>1.3493333333333322</v>
-      </c>
-    </row>
-    <row r="97" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G97">
-        <f t="shared" si="3"/>
         <v>2.2499999999999996</v>
       </c>
       <c r="H97">
+        <f>-G97*(1-1/3*G97^2)</f>
+        <v>1.5468749999999982</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="5"/>
+        <v>0.68749999999999933</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="6"/>
+        <v>4.0624999999999982</v>
+      </c>
+    </row>
+    <row r="98" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G98">
         <f t="shared" si="4"/>
-        <v>1.5468749999999982</v>
-      </c>
-    </row>
-    <row r="98" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G98">
-        <f t="shared" si="3"/>
         <v>2.2999999999999994</v>
       </c>
       <c r="H98">
+        <f>-G98*(1-1/3*G98^2)</f>
+        <v>1.7556666666666638</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="5"/>
+        <v>0.76333333333333231</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="6"/>
+        <v>4.2899999999999974</v>
+      </c>
+    </row>
+    <row r="99" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G99">
         <f t="shared" si="4"/>
-        <v>1.7556666666666638</v>
-      </c>
-    </row>
-    <row r="99" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G99">
-        <f t="shared" si="3"/>
         <v>2.3499999999999992</v>
       </c>
       <c r="H99">
+        <f>-G99*(1-1/3*G99^2)</f>
+        <v>1.9759583333333295</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="5"/>
+        <v>0.84083333333333199</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="6"/>
+        <v>4.5224999999999964</v>
+      </c>
+    </row>
+    <row r="100" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G100">
         <f t="shared" si="4"/>
-        <v>1.9759583333333295</v>
-      </c>
-    </row>
-    <row r="100" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G100">
-        <f t="shared" si="3"/>
         <v>2.399999999999999</v>
       </c>
       <c r="H100">
+        <f>-G100*(1-1/3*G100^2)</f>
+        <v>2.2079999999999953</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="5"/>
+        <v>0.91999999999999837</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="6"/>
+        <v>4.7599999999999953</v>
+      </c>
+    </row>
+    <row r="101" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G101">
         <f t="shared" si="4"/>
-        <v>2.2079999999999953</v>
-      </c>
-    </row>
-    <row r="101" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G101">
-        <f t="shared" si="3"/>
         <v>2.4499999999999988</v>
       </c>
       <c r="H101">
+        <f>-G101*(1-1/3*G101^2)</f>
+        <v>2.4520416666666605</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="5"/>
+        <v>1.0008333333333312</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="6"/>
+        <v>5.0024999999999942</v>
+      </c>
+    </row>
+    <row r="102" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G102">
         <f t="shared" si="4"/>
-        <v>2.4520416666666605</v>
-      </c>
-    </row>
-    <row r="102" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G102">
-        <f t="shared" si="3"/>
         <v>2.4999999999999987</v>
       </c>
       <c r="H102">
-        <f t="shared" si="4"/>
+        <f>-G102*(1-1/3*G102^2)</f>
         <v>2.7083333333333255</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="5"/>
+        <v>1.0833333333333308</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="6"/>
+        <v>5.2499999999999929</v>
       </c>
     </row>
   </sheetData>
